--- a/exports/report.xlsx
+++ b/exports/report.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Payments'!$A$1:$E$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Orders'!$A$1:$H$101</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Reviews'!$A$1:$G$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Reviews'!$A$1:$G$22</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -5877,7 +5877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -6545,9 +6545,40 @@
         <v>45922.95608939815</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>db9be3ee-3621-4d89-abf0-5ab9389a0ff1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>f848643eec1d69395095eb3840d2051e</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Great</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Excellent quality!</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>45926.00513196759</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>45926.00513196759</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G21"/>
-  <conditionalFormatting sqref="C2:C21">
+  <autoFilter ref="A1:G22"/>
+  <conditionalFormatting sqref="C2:C22">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
